--- a/resources/hca_master_fake.xlsx
+++ b/resources/hca_master_fake.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otrob\Documents\Dev\HaitiApp\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E78120-4D36-4598-BE90-616C2296214C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE17B2B9-DD8A-4C2B-9AC8-F6D68C144C34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="406" xr2:uid="{79D572EB-08E4-486B-8004-00E6DEB842A1}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16930" uniqueCount="4055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16945" uniqueCount="4055">
   <si>
     <t>id</t>
   </si>
@@ -12817,9 +12817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8D3E10-7490-49C0-8172-C26A5BD5C898}">
   <dimension ref="A1:AS501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC57" sqref="AC57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14468,7 +14468,7 @@
         <v>200</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>491</v>
+        <v>207</v>
       </c>
       <c r="AD13" s="1" t="s">
         <v>201</v>
@@ -14597,7 +14597,7 @@
         <v>215</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>491</v>
+        <v>207</v>
       </c>
       <c r="AD14" s="1" t="s">
         <v>216</v>
@@ -15759,7 +15759,7 @@
         <v>314</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>49</v>
+        <v>207</v>
       </c>
       <c r="AD23" s="1" t="s">
         <v>49</v>
@@ -20081,7 +20081,7 @@
         <v>200</v>
       </c>
       <c r="AC57" s="1" t="s">
-        <v>49</v>
+        <v>207</v>
       </c>
       <c r="AD57" s="1" t="s">
         <v>49</v>

--- a/resources/hca_master_fake.xlsx
+++ b/resources/hca_master_fake.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otrob\Documents\Dev\HaitiApp\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE17B2B9-DD8A-4C2B-9AC8-F6D68C144C34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238A324D-FE93-4CA9-83EB-7AC0E9339ACB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="406" xr2:uid="{79D572EB-08E4-486B-8004-00E6DEB842A1}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16945" uniqueCount="4055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16930" uniqueCount="4055">
   <si>
     <t>id</t>
   </si>
@@ -12819,7 +12819,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC57" sqref="AC57"/>
+      <selection pane="bottomLeft" activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
